--- a/biology/Microbiologie/Bénédicte_Menez/Bénédicte_Menez.xlsx
+++ b/biology/Microbiologie/Bénédicte_Menez/Bénédicte_Menez.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B%C3%A9n%C3%A9dicte_Menez</t>
+          <t>Bénédicte_Menez</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bénédicte Menez est une professeure des universités en sciences de la Terre à l'Institut de physique du globe de Paris[1]. Elle est responsable de l’équipe géobiosphère actuelle et primitive[2] où elle étudie des interactions entre les micro-organismes et les roches qu’elle caractérise à l’aide de techniques de microimagerie et de spectroscopie. Depuis 2001, elle développe des stratégies d’étude de la biosphère profonde, cette vie intraterrestre qui se développe dans les profondeurs de la croûte terrestre.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bénédicte Menez est une professeure des universités en sciences de la Terre à l'Institut de physique du globe de Paris. Elle est responsable de l’équipe géobiosphère actuelle et primitive où elle étudie des interactions entre les micro-organismes et les roches qu’elle caractérise à l’aide de techniques de microimagerie et de spectroscopie. Depuis 2001, elle développe des stratégies d’étude de la biosphère profonde, cette vie intraterrestre qui se développe dans les profondeurs de la croûte terrestre.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B%C3%A9n%C3%A9dicte_Menez</t>
+          <t>Bénédicte_Menez</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Récompenses et honneurs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2008 : Prix Holweck, Grelaud et Guido-Triossi décerné par l’Académie des sciences[3].
-2012 : Prix Irène-Joliot-Curie de la jeune femme scientifique pour ses travaux originaux dans un domaine de recherche nouveau, celui de la géomicrobiologie[4].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2008 : Prix Holweck, Grelaud et Guido-Triossi décerné par l’Académie des sciences.
+2012 : Prix Irène-Joliot-Curie de la jeune femme scientifique pour ses travaux originaux dans un domaine de recherche nouveau, celui de la géomicrobiologie.</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B%C3%A9n%C3%A9dicte_Menez</t>
+          <t>Bénédicte_Menez</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Dupraz, Sébastien, et al. "Experimental and numerical modeling of bacterially induced pH increase and calcite precipitation in saline aquifers." Chemical Geology 265.1 (2009): 44-53.
 (en) Foriel, Julien, et al. "Biological control of Cl/Br and low sulfate concentration in a 3.5-Gyr-old seawater from North Pole, Western Australia." Earth and Planetary Science Letters 228.3 (2004): 451-463.
